--- a/spliced/walkingToRunning/2023-03-30_14-26-17/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-26-17/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0419791936874389</v>
+        <v>-1.111309170722961</v>
       </c>
       <c r="B2" t="n">
-        <v>-20.49333000183105</v>
+        <v>-16.8168830871582</v>
       </c>
       <c r="C2" t="n">
-        <v>-13.21517372131348</v>
+        <v>-6.105263710021973</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.297537326812744</v>
+        <v>-0.0419791936874389</v>
       </c>
       <c r="B3" t="n">
-        <v>-12.87430763244629</v>
+        <v>-20.49333000183105</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.910844326019287</v>
+        <v>-13.21517372131348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.024067401885986</v>
+        <v>-3.297537326812744</v>
       </c>
       <c r="B4" t="n">
-        <v>-10.72560882568359</v>
+        <v>-12.87430763244629</v>
       </c>
       <c r="C4" t="n">
-        <v>-10.07154750823975</v>
+        <v>-6.910844326019287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.292793273925781</v>
+        <v>-2.024067401885986</v>
       </c>
       <c r="B5" t="n">
-        <v>-12.79408359527588</v>
+        <v>-10.72560882568359</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.549558639526367</v>
+        <v>-10.07154750823975</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11.05422019958496</v>
+        <v>2.292793273925781</v>
       </c>
       <c r="B6" t="n">
-        <v>-10.4705171585083</v>
+        <v>-12.79408359527588</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.454219818115234</v>
+        <v>-4.549558639526367</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14.52309226989746</v>
+        <v>11.05422019958496</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.075542449951172</v>
+        <v>-10.4705171585083</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.196336269378662</v>
+        <v>-6.454219818115234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>65.91658020019531</v>
+        <v>14.52309226989746</v>
       </c>
       <c r="B8" t="n">
-        <v>-23.6422119140625</v>
+        <v>-2.075542449951172</v>
       </c>
       <c r="C8" t="n">
-        <v>-20.2271671295166</v>
+        <v>-4.196336269378662</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-11.09761142730713</v>
+        <v>65.91658020019531</v>
       </c>
       <c r="B9" t="n">
-        <v>-9.708492279052734</v>
+        <v>-23.6422119140625</v>
       </c>
       <c r="C9" t="n">
-        <v>-16.66929626464844</v>
+        <v>-20.2271671295166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-24.99989891052246</v>
+        <v>-11.09761142730713</v>
       </c>
       <c r="B10" t="n">
-        <v>-21.75775909423828</v>
+        <v>-9.708492279052734</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6322221755981445</v>
+        <v>-16.66929626464844</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>37.47088623046875</v>
+        <v>-24.99989891052246</v>
       </c>
       <c r="B11" t="n">
-        <v>-10.36063957214356</v>
+        <v>-21.75775909423828</v>
       </c>
       <c r="C11" t="n">
-        <v>18.01900863647461</v>
+        <v>0.6322221755981445</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.643178939819336</v>
+        <v>37.47088623046875</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.723413467407227</v>
+        <v>-10.36063957214356</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.214177131652832</v>
+        <v>18.01900863647461</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10.17343330383301</v>
+        <v>-1.643178939819336</v>
       </c>
       <c r="B13" t="n">
-        <v>-45.65782165527344</v>
+        <v>-5.723413467407227</v>
       </c>
       <c r="C13" t="n">
-        <v>20.15432167053223</v>
+        <v>-5.214177131652832</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.11302375793457</v>
+        <v>10.17343330383301</v>
       </c>
       <c r="B14" t="n">
-        <v>-12.11679267883301</v>
+        <v>-45.65782165527344</v>
       </c>
       <c r="C14" t="n">
-        <v>-19.5434455871582</v>
+        <v>20.15432167053223</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>25.58180236816406</v>
+        <v>-1.11302375793457</v>
       </c>
       <c r="B15" t="n">
-        <v>-19.63376235961914</v>
+        <v>-12.11679267883301</v>
       </c>
       <c r="C15" t="n">
-        <v>-23.0617904663086</v>
+        <v>-19.5434455871582</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>34.03413391113281</v>
+        <v>25.58180236816406</v>
       </c>
       <c r="B16" t="n">
-        <v>-47.92161560058594</v>
+        <v>-19.63376235961914</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.704976081848145</v>
+        <v>-23.0617904663086</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-7.239111423492432</v>
+        <v>34.03413391113281</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.941543340682984</v>
+        <v>-47.92161560058594</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.735682010650635</v>
+        <v>-2.704976081848145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>21.65508270263672</v>
+        <v>-7.239111423492432</v>
       </c>
       <c r="B18" t="n">
-        <v>-27.37262153625488</v>
+        <v>-3.941543340682984</v>
       </c>
       <c r="C18" t="n">
-        <v>32.79093933105469</v>
+        <v>-4.735682010650635</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-48.36841201782227</v>
+        <v>21.65508270263672</v>
       </c>
       <c r="B19" t="n">
-        <v>-30.63133239746094</v>
+        <v>-27.37262153625488</v>
       </c>
       <c r="C19" t="n">
-        <v>-33.96612167358398</v>
+        <v>32.79093933105469</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-3.451883316040039</v>
+        <v>-48.36841201782227</v>
       </c>
       <c r="B20" t="n">
-        <v>-7.505331993103027</v>
+        <v>-30.63133239746094</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.28867816925049</v>
+        <v>-33.96612167358398</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-3.451883316040039</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-7.505331993103027</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-13.28867816925049</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>-6.207223892211914</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>-16.8746509552002</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>-9.824567794799805</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.000881910324097</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-4.219967842102051</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11.5488452911377</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>26.53460311889648</v>
+      </c>
+      <c r="B24" t="n">
+        <v>11.7469482421875</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.673069000244141</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>15.22074890136719</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-62.06856155395508</v>
+      </c>
+      <c r="C25" t="n">
+        <v>22.35076904296875</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-22.60456275939941</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16.3265266418457</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.586312532424927</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-8.99936580657959</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-18.44652366638184</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-19.57757568359375</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>80.43364715576172</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-83.25542449951172</v>
+      </c>
+      <c r="C28" t="n">
+        <v>37.27872467041016</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-2.663472175598145</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.494519710540772</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.472611904144287</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>18.3146915435791</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-38.27093124389648</v>
+      </c>
+      <c r="C30" t="n">
+        <v>47.83665084838867</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20.0896053314209</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-6.290483951568604</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-35.30553817749023</v>
       </c>
     </row>
   </sheetData>
